--- a/IMKL2.x/000. release candidate-intern/ExtraRegels-changelog.xlsx
+++ b/IMKL2.x/000. release candidate-intern/ExtraRegels-changelog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\3. extraregels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\000. release candidate-intern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFBD265-DE18-4F81-8A4C-AD19F0780B27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA96CEF-D397-41C6-97A3-C4F02AEB3E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,6 +521,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +560,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -643,6 +649,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -963,9 +972,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B8AAF5-2631-4C35-B121-F1562B5D065D}">
   <dimension ref="A1:J182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1407,7 +1416,7 @@
       <c r="B24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="18"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="18" t="s">
         <v>44</v>
       </c>
@@ -3297,15 +3306,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003ADD3040E3157B4E913BCA65F34844D7" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c1765059aa1475931adc12138fdcfd8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aafb19fa-82be-411d-a6df-c75e9235a4ea" xmlns:ns3="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42d79c55539af1f9f274032ce6041302" ns2:_="" ns3:_="">
     <xsd:import namespace="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -3508,6 +3508,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
   <ds:schemaRefs>
@@ -3518,14 +3527,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C9FDDB-2830-4DD6-A847-D844746B12F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3542,4 +3543,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/IMKL2.x/000. release candidate-intern/ExtraRegels-changelog.xlsx
+++ b/IMKL2.x/000. release candidate-intern/ExtraRegels-changelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\000. release candidate-intern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA96CEF-D397-41C6-97A3-C4F02AEB3E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9253AE29-D291-4DC8-BE53-04088A4FDDD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
+    <workbookView xWindow="-28920" yWindow="-4680" windowWidth="29040" windowHeight="15840" xr2:uid="{894B1FF5-8DFC-4651-A7C4-67B2EE5B0E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="129">
   <si>
     <t>Datum</t>
   </si>
@@ -505,7 +505,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,12 +521,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,7 +554,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -649,9 +643,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -973,8 +964,8 @@
   <dimension ref="A1:J182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1318,7 +1309,7 @@
       <c r="F18" s="18"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>43973</v>
       </c>
@@ -1416,7 +1407,9 @@
       <c r="B24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="D24" s="18" t="s">
         <v>44</v>
       </c>
@@ -3306,6 +3299,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003ADD3040E3157B4E913BCA65F34844D7" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c1765059aa1475931adc12138fdcfd8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aafb19fa-82be-411d-a6df-c75e9235a4ea" xmlns:ns3="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42d79c55539af1f9f274032ce6041302" ns2:_="" ns3:_="">
     <xsd:import namespace="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -3508,15 +3510,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1489CD-B12A-4704-A7E2-006D773FFFBF}">
   <ds:schemaRefs>
@@ -3527,6 +3520,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C9FDDB-2830-4DD6-A847-D844746B12F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3543,12 +3544,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7893A73B-81F0-482A-B793-D93E5F8DCA71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>